--- a/day6/qPCR_Project.xlsx
+++ b/day6/qPCR_Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://weizmannacil-my.sharepoint.com/personal/thea_meimoun_weizmann_ac_il/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3F410F8-E1DE-421E-BDA5-5862504B5249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{E3F410F8-E1DE-421E-BDA5-5862504B5249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA782D79-AA7B-4C5C-844A-682F3C690263}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" xr2:uid="{6C10472A-A94E-45CB-A864-8167AB1EB85C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Average of Cт</t>
   </si>
@@ -92,12 +92,6 @@
     <t>supt6h_c5_5</t>
   </si>
   <si>
-    <t>gaodh</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
     <t>dCT</t>
   </si>
   <si>
@@ -117,6 +111,15 @@
   </si>
   <si>
     <t>Divide the value of each KO by the KOLF average.</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Lines</t>
   </si>
 </sst>
 </file>
@@ -583,7 +586,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1FB3DA5-C8EE-47AE-A3FA-B11A1544E952}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1FB3DA5-C8EE-47AE-A3FA-B11A1544E952}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:E14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -1002,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9ABD115-DBB4-4386-944B-195D767915C8}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,15 +1018,30 @@
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1039,8 +1057,25 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>19.591105461120605</v>
+      </c>
+      <c r="I2">
+        <v>23.594092686971027</v>
+      </c>
+      <c r="J2">
+        <f>I2-H2</f>
+        <v>4.002987225850422</v>
+      </c>
+      <c r="K2">
+        <f>2^-J2</f>
+        <v>6.2370722188182973E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>31.70287036895752</v>
@@ -1054,8 +1089,29 @@
       <c r="E3">
         <v>31.537498474121094</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>19.037416458129883</v>
+      </c>
+      <c r="I3">
+        <v>25.870169321695965</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J5" si="0">I3-H3</f>
+        <v>6.8327528635660819</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K5" si="1">2^-J3</f>
+        <v>8.7727637725407565E-3</v>
+      </c>
+      <c r="L3">
+        <f>K3/$K$2</f>
+        <v>0.14065515781702592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1071,8 +1127,29 @@
       <c r="E4">
         <v>22.150336424509685</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>18.954411188761394</v>
+      </c>
+      <c r="I4">
+        <v>25.70246696472168</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>6.7480557759602853</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>9.3032094577990138E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L5" si="2">K4/$K$2</f>
+        <v>0.14915988033182723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1085,8 +1162,29 @@
       <c r="E5">
         <v>22.453792889912922</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>18.878522237141926</v>
+      </c>
+      <c r="I5">
+        <v>25.868750890096027</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>6.9902286529541016</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>7.8655935169245038E-3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.12611034858940198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1099,8 +1197,29 @@
       <c r="E6">
         <v>22.328439076741535</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>19.662520090738933</v>
+      </c>
+      <c r="I6">
+        <v>26.776113510131836</v>
+      </c>
+      <c r="J6">
+        <f>I6-H6</f>
+        <v>7.1135934193929025</v>
+      </c>
+      <c r="K6">
+        <f>2^-J6</f>
+        <v>7.220961073218431E-3</v>
+      </c>
+      <c r="L6">
+        <f>K6/$K$2</f>
+        <v>0.11577485108207622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1113,8 +1232,29 @@
       <c r="E7">
         <v>22.373636563618977</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>19.514139175415039</v>
+      </c>
+      <c r="I7">
+        <v>26.72138786315918</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J11" si="3">I7-H7</f>
+        <v>7.2072486877441406</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K11" si="4">2^-J7</f>
+        <v>6.767090097979528E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L11" si="5">K7/$K$2</f>
+        <v>0.10849786342960849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1127,8 +1267,29 @@
       <c r="E8">
         <v>23.219316800435383</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>19.14396031697591</v>
+      </c>
+      <c r="I8">
+        <v>26.445117950439453</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>7.3011576334635429</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>6.3406320158491203E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>0.10166039118030998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1141,8 +1302,29 @@
       <c r="E9">
         <v>23.117763519287109</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>19.192514419555664</v>
+      </c>
+      <c r="I9">
+        <v>26.500384012858074</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>7.30786959330241</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>6.3112015253293388E-3</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>0.10118852730753031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,8 +1337,29 @@
       <c r="E10">
         <v>22.794539133707683</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>19.107668558756512</v>
+      </c>
+      <c r="I10">
+        <v>26.396535237630207</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>7.2888666788736955</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>6.3948814123007455E-3</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>0.10253018063517545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,8 +1372,29 @@
       <c r="E11">
         <v>22.846449216206867</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>19.428993225097656</v>
+      </c>
+      <c r="I11">
+        <v>26.298689524332683</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>6.8696962992350272</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>8.5509694104809169E-3</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>0.13709909249857974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1184,7 +1408,7 @@
         <v>22.752101898193359</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1198,7 +1422,7 @@
         <v>22.863841374715168</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1215,269 +1439,29 @@
         <v>23.267476229600504</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>19.591105461120605</v>
-      </c>
-      <c r="C18">
-        <v>23.594092686971027</v>
-      </c>
-      <c r="D18">
-        <f>C18-B18</f>
-        <v>4.002987225850422</v>
-      </c>
-      <c r="E18">
-        <f>2^-D18</f>
-        <v>6.2370722188182973E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19">
-        <v>19.037416458129883</v>
-      </c>
-      <c r="C19">
-        <v>25.870169321695965</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ref="D19:D21" si="0">C19-B19</f>
-        <v>6.8327528635660819</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ref="E19:E29" si="1">2^-D19</f>
-        <v>8.7727637725407565E-3</v>
-      </c>
-      <c r="F19">
-        <f>E19/$E$18</f>
-        <v>0.14065515781702592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>18.954411188761394</v>
-      </c>
-      <c r="C20">
-        <v>25.70246696472168</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>6.7480557759602853</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>9.3032094577990138E-3</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ref="F20:F27" si="2">E20/$E$18</f>
-        <v>0.14915988033182723</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21">
-        <v>18.878522237141926</v>
-      </c>
-      <c r="C21">
-        <v>25.868750890096027</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>6.9902286529541016</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>7.8655935169245038E-3</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
-        <v>0.12611034858940198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>19.662520090738933</v>
-      </c>
-      <c r="C24">
-        <v>26.776113510131836</v>
-      </c>
-      <c r="D24">
-        <f>C24-B24</f>
-        <v>7.1135934193929025</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>7.220961073218431E-3</v>
-      </c>
-      <c r="F24">
-        <f>E24/$E$18</f>
-        <v>0.11577485108207622</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25">
-        <v>19.514139175415039</v>
-      </c>
-      <c r="C25">
-        <v>26.72138786315918</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ref="D25:D29" si="3">C25-B25</f>
-        <v>7.2072486877441406</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>6.767090097979528E-3</v>
-      </c>
-      <c r="F25">
-        <f>E25/$E$18</f>
-        <v>0.10849786342960849</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26">
-        <v>19.14396031697591</v>
-      </c>
-      <c r="C26">
-        <v>26.445117950439453</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="3"/>
-        <v>7.3011576334635429</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>6.3406320158491203E-3</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
-        <v>0.10166039118030998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27">
-        <v>19.192514419555664</v>
-      </c>
-      <c r="C27">
-        <v>26.500384012858074</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="3"/>
-        <v>7.30786959330241</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>6.3112015253293388E-3</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="2"/>
-        <v>0.10118852730753031</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28">
-        <v>19.107668558756512</v>
-      </c>
-      <c r="C28">
-        <v>26.396535237630207</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="3"/>
-        <v>7.2888666788736955</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>6.3948814123007455E-3</v>
-      </c>
-      <c r="F28">
-        <f>E28/$E$18</f>
-        <v>0.10253018063517545</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29">
-        <v>19.428993225097656</v>
-      </c>
-      <c r="C29">
-        <v>26.298689524332683</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="3"/>
-        <v>6.8696962992350272</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>8.5509694104809169E-3</v>
-      </c>
-      <c r="F29">
-        <f>E29/$E$18</f>
-        <v>0.13709909249857974</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
